--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Pitahaya (Ejder Meyvesi)</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm (Çekirdeksiz)</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Pitahaya (Ejder Meyvesi)</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm (Çekirdeksiz)</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="65">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,183 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Pitahaya (Ejder Meyvesi)</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm (Çekirdeksiz)</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>180,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +592,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="65">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,183 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Pitahaya (Ejder Meyvesi)</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm (Çekirdeksiz)</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>180,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +592,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Pitahaya (Ejder Meyvesi)</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm (Çekirdeksiz)</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Pitahaya (Ejder Meyvesi)</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm (Çekirdeksiz)</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Pitahaya (Ejder Meyvesi)</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm (Çekirdeksiz)</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="119">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -34,178 +34,343 @@
     <t>Kategori</t>
   </si>
   <si>
-    <t>Armut</t>
-  </si>
-  <si>
-    <t>Armut (Deveci)</t>
-  </si>
-  <si>
-    <t>Armut (Santamaria)</t>
-  </si>
-  <si>
-    <t>Avakado</t>
-  </si>
-  <si>
-    <t>Ayva</t>
-  </si>
-  <si>
-    <t>Çilek II.</t>
-  </si>
-  <si>
-    <t>Çilek(I.)</t>
-  </si>
-  <si>
-    <t>Elma (Amasya)</t>
-  </si>
-  <si>
-    <t>Elma (Golden)</t>
-  </si>
-  <si>
-    <t>Elma (Gransimit)</t>
-  </si>
-  <si>
-    <t>Elma (Starkin)</t>
-  </si>
-  <si>
-    <t>Elma(GoldenII.)</t>
-  </si>
-  <si>
-    <t>Elma(gransimit)II.</t>
-  </si>
-  <si>
-    <t>Elma(starkin)II.</t>
-  </si>
-  <si>
-    <t>Erik (Anjelik)</t>
-  </si>
-  <si>
-    <t>Greyfurt</t>
-  </si>
-  <si>
-    <t>Karpuz (1.Kalite)</t>
-  </si>
-  <si>
-    <t>Kavun</t>
-  </si>
-  <si>
-    <t>Kavun (Kırkağaç)</t>
-  </si>
-  <si>
-    <t>Kestane</t>
-  </si>
-  <si>
-    <t>Kivi (Yerli)</t>
-  </si>
-  <si>
-    <t>Limon</t>
-  </si>
-  <si>
-    <t>Limon (Çıkma)</t>
-  </si>
-  <si>
-    <t>Limon (Mayer)</t>
-  </si>
-  <si>
-    <t>Mandalina</t>
-  </si>
-  <si>
-    <t>Muşmula</t>
-  </si>
-  <si>
-    <t>Muz (Yerli)</t>
-  </si>
-  <si>
-    <t>Muz(Yerli II.)</t>
-  </si>
-  <si>
-    <t>Nar</t>
-  </si>
-  <si>
-    <t>Pitahaya (Ejder Meyvesi)</t>
-  </si>
-  <si>
-    <t>Portakal</t>
-  </si>
-  <si>
-    <t>Portakal (Sıkmalık)</t>
-  </si>
-  <si>
-    <t>Trabzon Hurması</t>
-  </si>
-  <si>
-    <t>Üzüm</t>
-  </si>
-  <si>
-    <t>Üzüm (Çekirdeksiz)</t>
-  </si>
-  <si>
-    <t>Üzüm(Siyah)</t>
+    <t>Barbunya</t>
+  </si>
+  <si>
+    <t>Biber (Capia)</t>
+  </si>
+  <si>
+    <t>Biber (Capya) Tarla</t>
+  </si>
+  <si>
+    <t>Biber (Çarli)</t>
+  </si>
+  <si>
+    <t>Biber (Çarli)İkinci</t>
+  </si>
+  <si>
+    <t>Biber (Dolma)</t>
+  </si>
+  <si>
+    <t>Biber (Dolma)İkinci</t>
+  </si>
+  <si>
+    <t>Biber (Köy)</t>
+  </si>
+  <si>
+    <t>Biber (Renkli)</t>
+  </si>
+  <si>
+    <t>Biber (Sivri)</t>
+  </si>
+  <si>
+    <t>Biber (Sivri)İkinci</t>
+  </si>
+  <si>
+    <t>Biber Köy II.</t>
+  </si>
+  <si>
+    <t>Biber(Sivri Kıl)</t>
+  </si>
+  <si>
+    <t>Brokoli</t>
+  </si>
+  <si>
+    <t>Dereotu</t>
+  </si>
+  <si>
+    <t>Dereotu II.</t>
+  </si>
+  <si>
+    <t>Domates</t>
+  </si>
+  <si>
+    <t>Domates (Çeri)</t>
+  </si>
+  <si>
+    <t>Domates (İkinci kalite)</t>
+  </si>
+  <si>
+    <t>Domates (kokteyl)</t>
+  </si>
+  <si>
+    <t>Domates (Pembe)</t>
+  </si>
+  <si>
+    <t>Domates (Salkım)</t>
+  </si>
+  <si>
+    <t>Domates(Petemek)</t>
+  </si>
+  <si>
+    <t>Enginar</t>
+  </si>
+  <si>
+    <t>Fasülye (Çalı)</t>
+  </si>
+  <si>
+    <t>Fasülye (Yer)</t>
+  </si>
+  <si>
+    <t>Göbek Salata</t>
+  </si>
+  <si>
+    <t>Göbek Salata (2.Kalite)</t>
+  </si>
+  <si>
+    <t>Havuç (Beypazarı)</t>
+  </si>
+  <si>
+    <t>Havuç (Beypazarı)İri</t>
+  </si>
+  <si>
+    <t>Havuç I.</t>
+  </si>
+  <si>
+    <t>Ispanak</t>
+  </si>
+  <si>
+    <t>Ispanak II.</t>
+  </si>
+  <si>
+    <t>Kabak (Bal)</t>
+  </si>
+  <si>
+    <t>Kabak (Sakız)</t>
+  </si>
+  <si>
+    <t>Kabak Sakız(ikinci)</t>
+  </si>
+  <si>
+    <t>Karnabahar</t>
+  </si>
+  <si>
+    <t>Kereviz</t>
+  </si>
+  <si>
+    <t>Kıvırcık</t>
+  </si>
+  <si>
+    <t>Kıvırcık (2.Kalite)</t>
+  </si>
+  <si>
+    <t>Kıvırcık Kırmızı(Lolorosso)</t>
+  </si>
+  <si>
+    <t>Lahana (Beyaz)</t>
+  </si>
+  <si>
+    <t>Lahana (Kara)</t>
+  </si>
+  <si>
+    <t>Lahana (Kırmızı)</t>
+  </si>
+  <si>
+    <t>Mantar</t>
+  </si>
+  <si>
+    <t>Marul</t>
+  </si>
+  <si>
+    <t>Marul II.</t>
+  </si>
+  <si>
+    <t>Maydonoz</t>
+  </si>
+  <si>
+    <t>Maydonoz II.</t>
+  </si>
+  <si>
+    <t>Mısır (Taze)</t>
+  </si>
+  <si>
+    <t>Nane (Tekli)</t>
+  </si>
+  <si>
+    <t>Nane II.</t>
+  </si>
+  <si>
+    <t>Pancar</t>
+  </si>
+  <si>
+    <t>Patates</t>
+  </si>
+  <si>
+    <t>Patates (2.kalite)</t>
+  </si>
+  <si>
+    <t>Patates (Taze)</t>
+  </si>
+  <si>
+    <t>Patlıcan (İkinci)</t>
+  </si>
+  <si>
+    <t>Patlıcan Bostan</t>
+  </si>
+  <si>
+    <t>Patlıcan I.</t>
+  </si>
+  <si>
+    <t>Pazı</t>
+  </si>
+  <si>
+    <t>Pırasa</t>
+  </si>
+  <si>
+    <t>Roka</t>
+  </si>
+  <si>
+    <t>Roka II.</t>
+  </si>
+  <si>
+    <t>Salata (Çengelköy) silor</t>
+  </si>
+  <si>
+    <t>Salata(çengelköy II.)</t>
+  </si>
+  <si>
+    <t>Salatalık I.</t>
+  </si>
+  <si>
+    <t>Salatalık(İkinci)</t>
+  </si>
+  <si>
+    <t>Sarımsak (Kuru)</t>
+  </si>
+  <si>
+    <t>Sarımsak(II.)</t>
+  </si>
+  <si>
+    <t>Semizotu</t>
+  </si>
+  <si>
+    <t>Soğan (Kırmızı Balık)</t>
+  </si>
+  <si>
+    <t>Soğan (Taze)</t>
+  </si>
+  <si>
+    <t>Soğan (Tekirdağ)</t>
+  </si>
+  <si>
+    <t>Soğan Kuru</t>
+  </si>
+  <si>
+    <t>Soğan Kuru II.</t>
+  </si>
+  <si>
+    <t>Tereotu</t>
+  </si>
+  <si>
+    <t>Turp</t>
+  </si>
+  <si>
+    <t>Turp (Kırmızı)</t>
+  </si>
+  <si>
+    <t>Yaprak (Salamura)</t>
+  </si>
+  <si>
+    <t>Yer Elması</t>
   </si>
   <si>
     <t>Kilogram</t>
   </si>
   <si>
+    <t>Demet</t>
+  </si>
+  <si>
     <t>Adet</t>
   </si>
   <si>
-    <t>Sandık</t>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>13,00 TL</t>
+  </si>
+  <si>
+    <t>7,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>6,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>18,00 TL</t>
   </si>
   <si>
     <t>10,00 TL</t>
   </si>
   <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
     <t>35,00 TL</t>
   </si>
   <si>
-    <t>40,00 TL</t>
-  </si>
-  <si>
-    <t>30,00 TL</t>
-  </si>
-  <si>
-    <t>50,00 TL</t>
+    <t>14,00 TL</t>
+  </si>
+  <si>
+    <t>8,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>65,00 TL</t>
   </si>
   <si>
     <t>100,00 TL</t>
   </si>
   <si>
-    <t>25,00 TL</t>
-  </si>
-  <si>
-    <t>15,00 TL</t>
-  </si>
-  <si>
-    <t>20,00 TL</t>
-  </si>
-  <si>
-    <t>150,00 TL</t>
-  </si>
-  <si>
-    <t>60,00 TL</t>
-  </si>
-  <si>
-    <t>45,00 TL</t>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>9,00 TL</t>
   </si>
   <si>
     <t>55,00 TL</t>
   </si>
   <si>
-    <t>90,00 TL</t>
-  </si>
-  <si>
-    <t>200,00 TL</t>
-  </si>
-  <si>
-    <t>70,00 TL</t>
-  </si>
-  <si>
-    <t>80,00 TL</t>
+    <t>120,00 TL</t>
+  </si>
+  <si>
+    <t>12,00 TL</t>
+  </si>
+  <si>
+    <t>85,00 TL</t>
   </si>
   <si>
     <t>2025-01-17</t>
   </si>
   <si>
-    <t>Meyve</t>
+    <t>Sebze</t>
   </si>
 </sst>
 </file>
@@ -563,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,19 +759,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -614,19 +779,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -634,19 +799,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -654,19 +819,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -674,19 +839,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -694,19 +859,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -714,19 +879,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -734,19 +899,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -754,19 +919,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -774,19 +939,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -794,19 +959,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -814,19 +979,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -834,19 +999,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -854,19 +1019,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -874,19 +1039,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -894,19 +1059,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -914,19 +1079,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -934,19 +1099,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -954,19 +1119,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -974,19 +1139,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -994,19 +1159,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,19 +1179,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,19 +1199,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,19 +1219,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1074,19 +1239,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1094,19 +1259,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1114,19 +1279,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1134,19 +1299,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,19 +1319,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1174,19 +1339,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1194,19 +1359,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1214,19 +1379,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1234,19 +1399,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1254,19 +1419,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1274,19 +1439,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1294,19 +1459,899 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="E37" t="s">
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="F37" t="s">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
         <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Pitahaya (Ejder Meyvesi)</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm (Çekirdeksiz)</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="118">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -34,178 +34,340 @@
     <t>Kategori</t>
   </si>
   <si>
-    <t>Armut</t>
-  </si>
-  <si>
-    <t>Armut (Deveci)</t>
-  </si>
-  <si>
-    <t>Armut (Santamaria)</t>
-  </si>
-  <si>
-    <t>Avakado</t>
-  </si>
-  <si>
-    <t>Ayva</t>
-  </si>
-  <si>
-    <t>Çilek II.</t>
-  </si>
-  <si>
-    <t>Çilek(I.)</t>
-  </si>
-  <si>
-    <t>Elma (Amasya)</t>
-  </si>
-  <si>
-    <t>Elma (Golden)</t>
-  </si>
-  <si>
-    <t>Elma (Gransimit)</t>
-  </si>
-  <si>
-    <t>Elma (Starkin)</t>
-  </si>
-  <si>
-    <t>Elma(GoldenII.)</t>
-  </si>
-  <si>
-    <t>Elma(gransimit)II.</t>
-  </si>
-  <si>
-    <t>Elma(starkin)II.</t>
-  </si>
-  <si>
-    <t>Erik (Anjelik)</t>
-  </si>
-  <si>
-    <t>Greyfurt</t>
-  </si>
-  <si>
-    <t>Karpuz (1.Kalite)</t>
-  </si>
-  <si>
-    <t>Kavun</t>
-  </si>
-  <si>
-    <t>Kavun (Kırkağaç)</t>
-  </si>
-  <si>
-    <t>Kestane</t>
-  </si>
-  <si>
-    <t>Kivi (Yerli)</t>
-  </si>
-  <si>
-    <t>Limon</t>
-  </si>
-  <si>
-    <t>Limon (Çıkma)</t>
-  </si>
-  <si>
-    <t>Limon (Mayer)</t>
-  </si>
-  <si>
-    <t>Mandalina</t>
-  </si>
-  <si>
-    <t>Muşmula</t>
-  </si>
-  <si>
-    <t>Muz (Yerli)</t>
-  </si>
-  <si>
-    <t>Muz(Yerli II.)</t>
-  </si>
-  <si>
-    <t>Nar</t>
-  </si>
-  <si>
-    <t>Pitahaya (Ejder Meyvesi)</t>
-  </si>
-  <si>
-    <t>Portakal</t>
-  </si>
-  <si>
-    <t>Portakal (Sıkmalık)</t>
-  </si>
-  <si>
-    <t>Trabzon Hurması</t>
-  </si>
-  <si>
-    <t>Üzüm</t>
-  </si>
-  <si>
-    <t>Üzüm (Çekirdeksiz)</t>
-  </si>
-  <si>
-    <t>Üzüm(Siyah)</t>
+    <t>Barbunya</t>
+  </si>
+  <si>
+    <t>Biber (Capia)</t>
+  </si>
+  <si>
+    <t>Biber (Capya) Tarla</t>
+  </si>
+  <si>
+    <t>Biber (Çarli)</t>
+  </si>
+  <si>
+    <t>Biber (Çarli)İkinci</t>
+  </si>
+  <si>
+    <t>Biber (Dolma)</t>
+  </si>
+  <si>
+    <t>Biber (Dolma)İkinci</t>
+  </si>
+  <si>
+    <t>Biber (Köy)</t>
+  </si>
+  <si>
+    <t>Biber (Renkli)</t>
+  </si>
+  <si>
+    <t>Biber (Sivri)</t>
+  </si>
+  <si>
+    <t>Biber (Sivri)İkinci</t>
+  </si>
+  <si>
+    <t>Biber Köy II.</t>
+  </si>
+  <si>
+    <t>Biber(Sivri Kıl)</t>
+  </si>
+  <si>
+    <t>Brokoli</t>
+  </si>
+  <si>
+    <t>Dereotu</t>
+  </si>
+  <si>
+    <t>Dereotu II.</t>
+  </si>
+  <si>
+    <t>Domates</t>
+  </si>
+  <si>
+    <t>Domates (Çeri)</t>
+  </si>
+  <si>
+    <t>Domates (İkinci kalite)</t>
+  </si>
+  <si>
+    <t>Domates (kokteyl)</t>
+  </si>
+  <si>
+    <t>Domates (Pembe)</t>
+  </si>
+  <si>
+    <t>Domates (Salkım)</t>
+  </si>
+  <si>
+    <t>Domates(Petemek)</t>
+  </si>
+  <si>
+    <t>Enginar</t>
+  </si>
+  <si>
+    <t>Fasülye (Çalı)</t>
+  </si>
+  <si>
+    <t>Fasülye (Yer)</t>
+  </si>
+  <si>
+    <t>Göbek Salata</t>
+  </si>
+  <si>
+    <t>Göbek Salata (2.Kalite)</t>
+  </si>
+  <si>
+    <t>Havuç (Beypazarı)</t>
+  </si>
+  <si>
+    <t>Havuç (Beypazarı)İri</t>
+  </si>
+  <si>
+    <t>Havuç I.</t>
+  </si>
+  <si>
+    <t>Ispanak</t>
+  </si>
+  <si>
+    <t>Ispanak II.</t>
+  </si>
+  <si>
+    <t>Kabak (Bal)</t>
+  </si>
+  <si>
+    <t>Kabak (Sakız)</t>
+  </si>
+  <si>
+    <t>Kabak Sakız(ikinci)</t>
+  </si>
+  <si>
+    <t>Karnabahar</t>
+  </si>
+  <si>
+    <t>Kereviz</t>
+  </si>
+  <si>
+    <t>Kıvırcık</t>
+  </si>
+  <si>
+    <t>Kıvırcık (2.Kalite)</t>
+  </si>
+  <si>
+    <t>Kıvırcık Kırmızı(Lolorosso)</t>
+  </si>
+  <si>
+    <t>Lahana (Beyaz)</t>
+  </si>
+  <si>
+    <t>Lahana (Kara)</t>
+  </si>
+  <si>
+    <t>Lahana (Kırmızı)</t>
+  </si>
+  <si>
+    <t>Mantar</t>
+  </si>
+  <si>
+    <t>Marul</t>
+  </si>
+  <si>
+    <t>Marul II.</t>
+  </si>
+  <si>
+    <t>Maydonoz</t>
+  </si>
+  <si>
+    <t>Maydonoz II.</t>
+  </si>
+  <si>
+    <t>Mısır (Taze)</t>
+  </si>
+  <si>
+    <t>Nane (Tekli)</t>
+  </si>
+  <si>
+    <t>Nane II.</t>
+  </si>
+  <si>
+    <t>Pancar</t>
+  </si>
+  <si>
+    <t>Patates</t>
+  </si>
+  <si>
+    <t>Patates (2.kalite)</t>
+  </si>
+  <si>
+    <t>Patates (Taze)</t>
+  </si>
+  <si>
+    <t>Patlıcan (İkinci)</t>
+  </si>
+  <si>
+    <t>Patlıcan Bostan</t>
+  </si>
+  <si>
+    <t>Patlıcan I.</t>
+  </si>
+  <si>
+    <t>Pazı</t>
+  </si>
+  <si>
+    <t>Pırasa</t>
+  </si>
+  <si>
+    <t>Roka</t>
+  </si>
+  <si>
+    <t>Roka II.</t>
+  </si>
+  <si>
+    <t>Salata (Çengelköy) silor</t>
+  </si>
+  <si>
+    <t>Salata(çengelköy II.)</t>
+  </si>
+  <si>
+    <t>Salatalık I.</t>
+  </si>
+  <si>
+    <t>Salatalık(İkinci)</t>
+  </si>
+  <si>
+    <t>Sarımsak (Kuru)</t>
+  </si>
+  <si>
+    <t>Sarımsak(II.)</t>
+  </si>
+  <si>
+    <t>Semizotu</t>
+  </si>
+  <si>
+    <t>Soğan (Kırmızı Balık)</t>
+  </si>
+  <si>
+    <t>Soğan (Taze)</t>
+  </si>
+  <si>
+    <t>Soğan (Tekirdağ)</t>
+  </si>
+  <si>
+    <t>Soğan Kuru</t>
+  </si>
+  <si>
+    <t>Soğan Kuru II.</t>
+  </si>
+  <si>
+    <t>Tereotu</t>
+  </si>
+  <si>
+    <t>Turp</t>
+  </si>
+  <si>
+    <t>Turp (Kırmızı)</t>
+  </si>
+  <si>
+    <t>Yaprak (Salamura)</t>
+  </si>
+  <si>
+    <t>Yer Elması</t>
   </si>
   <si>
     <t>Kilogram</t>
   </si>
   <si>
+    <t>Demet</t>
+  </si>
+  <si>
     <t>Adet</t>
   </si>
   <si>
-    <t>Sandık</t>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>13,00 TL</t>
+  </si>
+  <si>
+    <t>7,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>6,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>18,00 TL</t>
   </si>
   <si>
     <t>10,00 TL</t>
   </si>
   <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
     <t>35,00 TL</t>
   </si>
   <si>
-    <t>40,00 TL</t>
-  </si>
-  <si>
-    <t>30,00 TL</t>
-  </si>
-  <si>
-    <t>50,00 TL</t>
+    <t>14,00 TL</t>
+  </si>
+  <si>
+    <t>8,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>65,00 TL</t>
   </si>
   <si>
     <t>100,00 TL</t>
   </si>
   <si>
-    <t>25,00 TL</t>
-  </si>
-  <si>
-    <t>15,00 TL</t>
-  </si>
-  <si>
-    <t>20,00 TL</t>
-  </si>
-  <si>
-    <t>150,00 TL</t>
-  </si>
-  <si>
-    <t>60,00 TL</t>
-  </si>
-  <si>
-    <t>45,00 TL</t>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>9,00 TL</t>
   </si>
   <si>
     <t>55,00 TL</t>
   </si>
   <si>
-    <t>90,00 TL</t>
-  </si>
-  <si>
-    <t>200,00 TL</t>
-  </si>
-  <si>
-    <t>80,00 TL</t>
-  </si>
-  <si>
-    <t>70,00 TL</t>
+    <t>120,00 TL</t>
+  </si>
+  <si>
+    <t>12,00 TL</t>
   </si>
   <si>
     <t>2025-01-20</t>
   </si>
   <si>
-    <t>Meyve</t>
+    <t>Sebze</t>
   </si>
 </sst>
 </file>
@@ -563,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,19 +756,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -614,19 +776,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -634,19 +796,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -654,19 +816,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -674,19 +836,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -694,19 +856,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -714,19 +876,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -734,19 +896,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -754,19 +916,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -774,19 +936,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -794,19 +956,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -814,19 +976,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -834,19 +996,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -854,19 +1016,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -874,19 +1036,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -894,19 +1056,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -914,19 +1076,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -934,19 +1096,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -954,19 +1116,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -974,19 +1136,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -994,19 +1156,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,19 +1176,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,19 +1196,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,19 +1216,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1074,19 +1236,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1094,19 +1256,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1114,19 +1276,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1134,19 +1296,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,19 +1316,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1174,19 +1336,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1194,19 +1356,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1214,19 +1376,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1234,19 +1396,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1254,19 +1416,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1274,19 +1436,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1294,19 +1456,899 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="E37" t="s">
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="F37" t="s">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
         <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>116</v>
+      </c>
+      <c r="F73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" t="s">
+        <v>116</v>
+      </c>
+      <c r="F76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>116</v>
+      </c>
+      <c r="F77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" t="s">
+        <v>116</v>
+      </c>
+      <c r="F79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,174 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +583,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,174 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +583,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,174 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +583,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,174 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +583,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="120">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -34,172 +34,346 @@
     <t>Kategori</t>
   </si>
   <si>
-    <t>Armut</t>
-  </si>
-  <si>
-    <t>Armut (Deveci)</t>
-  </si>
-  <si>
-    <t>Armut (Santamaria)</t>
-  </si>
-  <si>
-    <t>Avakado</t>
-  </si>
-  <si>
-    <t>Ayva</t>
-  </si>
-  <si>
-    <t>Çilek II.</t>
-  </si>
-  <si>
-    <t>Çilek(I.)</t>
-  </si>
-  <si>
-    <t>Elma (Amasya)</t>
-  </si>
-  <si>
-    <t>Elma (Golden)</t>
-  </si>
-  <si>
-    <t>Elma (Gransimit)</t>
-  </si>
-  <si>
-    <t>Elma (Starkin)</t>
-  </si>
-  <si>
-    <t>Elma(GoldenII.)</t>
-  </si>
-  <si>
-    <t>Elma(gransimit)II.</t>
-  </si>
-  <si>
-    <t>Elma(starkin)II.</t>
-  </si>
-  <si>
-    <t>Erik (Anjelik)</t>
-  </si>
-  <si>
-    <t>Greyfurt</t>
-  </si>
-  <si>
-    <t>Karpuz (1.Kalite)</t>
-  </si>
-  <si>
-    <t>Kavun</t>
-  </si>
-  <si>
-    <t>Kavun (Kırkağaç)</t>
-  </si>
-  <si>
-    <t>Kestane</t>
-  </si>
-  <si>
-    <t>Kivi (Yerli)</t>
-  </si>
-  <si>
-    <t>Limon</t>
-  </si>
-  <si>
-    <t>Limon (Çıkma)</t>
-  </si>
-  <si>
-    <t>Limon (Mayer)</t>
-  </si>
-  <si>
-    <t>Mandalina</t>
-  </si>
-  <si>
-    <t>Muşmula</t>
-  </si>
-  <si>
-    <t>Muz (Yerli)</t>
-  </si>
-  <si>
-    <t>Muz(Yerli II.)</t>
-  </si>
-  <si>
-    <t>Nar</t>
-  </si>
-  <si>
-    <t>Portakal</t>
-  </si>
-  <si>
-    <t>Portakal (Sıkmalık)</t>
-  </si>
-  <si>
-    <t>Trabzon Hurması</t>
-  </si>
-  <si>
-    <t>Üzüm</t>
-  </si>
-  <si>
-    <t>Üzüm(Siyah)</t>
+    <t>Bakla</t>
+  </si>
+  <si>
+    <t>Barbunya</t>
+  </si>
+  <si>
+    <t>Biber (Capia)</t>
+  </si>
+  <si>
+    <t>Biber (Capya) Tarla</t>
+  </si>
+  <si>
+    <t>Biber (Çarli)</t>
+  </si>
+  <si>
+    <t>Biber (Çarli)İkinci</t>
+  </si>
+  <si>
+    <t>Biber (Dolma)</t>
+  </si>
+  <si>
+    <t>Biber (Dolma)İkinci</t>
+  </si>
+  <si>
+    <t>Biber (Köy)</t>
+  </si>
+  <si>
+    <t>Biber (Renkli)</t>
+  </si>
+  <si>
+    <t>Biber (Sivri)</t>
+  </si>
+  <si>
+    <t>Biber (Sivri)İkinci</t>
+  </si>
+  <si>
+    <t>Biber Köy II.</t>
+  </si>
+  <si>
+    <t>Biber(Sivri Kıl)</t>
+  </si>
+  <si>
+    <t>Brokoli</t>
+  </si>
+  <si>
+    <t>Dereotu</t>
+  </si>
+  <si>
+    <t>Dereotu II.</t>
+  </si>
+  <si>
+    <t>Domates</t>
+  </si>
+  <si>
+    <t>Domates (Çeri)</t>
+  </si>
+  <si>
+    <t>Domates (İkinci kalite)</t>
+  </si>
+  <si>
+    <t>Domates (kokteyl)</t>
+  </si>
+  <si>
+    <t>Domates (Pembe)</t>
+  </si>
+  <si>
+    <t>Domates (Salkım)</t>
+  </si>
+  <si>
+    <t>Domates(Petemek)</t>
+  </si>
+  <si>
+    <t>Enginar</t>
+  </si>
+  <si>
+    <t>Fasülye (Çalı)</t>
+  </si>
+  <si>
+    <t>Fasülye (Yer)</t>
+  </si>
+  <si>
+    <t>Fesleğen</t>
+  </si>
+  <si>
+    <t>Göbek Salata</t>
+  </si>
+  <si>
+    <t>Göbek Salata (2.Kalite)</t>
+  </si>
+  <si>
+    <t>Havuç (Beypazarı)</t>
+  </si>
+  <si>
+    <t>Havuç (Beypazarı)İri</t>
+  </si>
+  <si>
+    <t>Havuç I.</t>
+  </si>
+  <si>
+    <t>Ispanak</t>
+  </si>
+  <si>
+    <t>Ispanak II.</t>
+  </si>
+  <si>
+    <t>Kabak (Bal)</t>
+  </si>
+  <si>
+    <t>Kabak (Sakız)</t>
+  </si>
+  <si>
+    <t>Kabak Sakız(ikinci)</t>
+  </si>
+  <si>
+    <t>Karnabahar</t>
+  </si>
+  <si>
+    <t>Kereviz</t>
+  </si>
+  <si>
+    <t>Kıvırcık</t>
+  </si>
+  <si>
+    <t>Kıvırcık (2.Kalite)</t>
+  </si>
+  <si>
+    <t>Kıvırcık Kırmızı(Lolorosso)</t>
+  </si>
+  <si>
+    <t>Lahana (Beyaz)</t>
+  </si>
+  <si>
+    <t>Lahana (Kara)</t>
+  </si>
+  <si>
+    <t>Lahana (Kırmızı)</t>
+  </si>
+  <si>
+    <t>Mantar</t>
+  </si>
+  <si>
+    <t>Marul</t>
+  </si>
+  <si>
+    <t>Marul II.</t>
+  </si>
+  <si>
+    <t>Maydonoz</t>
+  </si>
+  <si>
+    <t>Maydonoz II.</t>
+  </si>
+  <si>
+    <t>Mısır (Taze)</t>
+  </si>
+  <si>
+    <t>Nane (Tekli)</t>
+  </si>
+  <si>
+    <t>Nane II.</t>
+  </si>
+  <si>
+    <t>Pancar</t>
+  </si>
+  <si>
+    <t>Patates</t>
+  </si>
+  <si>
+    <t>Patates (2.kalite)</t>
+  </si>
+  <si>
+    <t>Patates (Taze)</t>
+  </si>
+  <si>
+    <t>Patlıcan (İkinci)</t>
+  </si>
+  <si>
+    <t>Patlıcan Bostan</t>
+  </si>
+  <si>
+    <t>Patlıcan I.</t>
+  </si>
+  <si>
+    <t>Pazı</t>
+  </si>
+  <si>
+    <t>Pırasa</t>
+  </si>
+  <si>
+    <t>Roka</t>
+  </si>
+  <si>
+    <t>Roka II.</t>
+  </si>
+  <si>
+    <t>Salata (Çengelköy) silor</t>
+  </si>
+  <si>
+    <t>Salata(çengelköy II.)</t>
+  </si>
+  <si>
+    <t>Salatalık I.</t>
+  </si>
+  <si>
+    <t>Salatalık(İkinci)</t>
+  </si>
+  <si>
+    <t>Sarımsak (Kuru)</t>
+  </si>
+  <si>
+    <t>Sarımsak(II.)</t>
+  </si>
+  <si>
+    <t>Semizotu</t>
+  </si>
+  <si>
+    <t>Soğan (Kırmızı Balık)</t>
+  </si>
+  <si>
+    <t>Soğan (Taze)</t>
+  </si>
+  <si>
+    <t>Soğan (Tekirdağ)</t>
+  </si>
+  <si>
+    <t>Soğan Kuru</t>
+  </si>
+  <si>
+    <t>Soğan Kuru II.</t>
+  </si>
+  <si>
+    <t>Tereotu</t>
+  </si>
+  <si>
+    <t>Turp</t>
+  </si>
+  <si>
+    <t>Turp (Kırmızı)</t>
+  </si>
+  <si>
+    <t>Yaprak (Salamura)</t>
+  </si>
+  <si>
+    <t>Yer Elması</t>
   </si>
   <si>
     <t>Kilogram</t>
   </si>
   <si>
+    <t>Demet</t>
+  </si>
+  <si>
     <t>Adet</t>
   </si>
   <si>
-    <t>Sandık</t>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>13,00 TL</t>
+  </si>
+  <si>
+    <t>7,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>6,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>8,00 TL</t>
   </si>
   <si>
     <t>10,00 TL</t>
   </si>
   <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>14,00 TL</t>
+  </si>
+  <si>
     <t>35,00 TL</t>
   </si>
   <si>
-    <t>40,00 TL</t>
-  </si>
-  <si>
-    <t>30,00 TL</t>
-  </si>
-  <si>
-    <t>50,00 TL</t>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>65,00 TL</t>
   </si>
   <si>
     <t>100,00 TL</t>
   </si>
   <si>
-    <t>25,00 TL</t>
-  </si>
-  <si>
-    <t>15,00 TL</t>
-  </si>
-  <si>
-    <t>20,00 TL</t>
-  </si>
-  <si>
-    <t>150,00 TL</t>
-  </si>
-  <si>
-    <t>60,00 TL</t>
-  </si>
-  <si>
-    <t>45,00 TL</t>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>9,00 TL</t>
+  </si>
+  <si>
+    <t>120,00 TL</t>
+  </si>
+  <si>
+    <t>18,00 TL</t>
+  </si>
+  <si>
+    <t>12,00 TL</t>
   </si>
   <si>
     <t>55,00 TL</t>
   </si>
   <si>
-    <t>90,00 TL</t>
-  </si>
-  <si>
-    <t>200,00 TL</t>
-  </si>
-  <si>
-    <t>80,00 TL</t>
-  </si>
-  <si>
-    <t>70,00 TL</t>
-  </si>
-  <si>
     <t>2025-01-24</t>
   </si>
   <si>
-    <t>Meyve</t>
+    <t>Sebze</t>
   </si>
 </sst>
 </file>
@@ -557,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,19 +762,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -608,19 +782,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -628,19 +802,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -648,19 +822,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -668,19 +842,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -688,19 +862,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -708,19 +882,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -728,19 +902,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -748,19 +922,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -768,19 +942,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -788,19 +962,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -808,19 +982,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -828,19 +1002,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -848,19 +1022,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -868,19 +1042,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -888,19 +1062,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -908,19 +1082,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -928,19 +1102,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -948,19 +1122,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -968,19 +1142,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -988,19 +1162,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1008,19 +1182,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1028,19 +1202,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1048,19 +1222,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1068,19 +1242,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1088,19 +1262,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1108,19 +1282,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1128,19 +1302,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1148,19 +1322,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1168,19 +1342,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1188,19 +1362,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1208,19 +1382,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1228,19 +1402,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1248,19 +1422,979 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="E35" t="s">
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="F35" t="s">
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -193,7 +193,7 @@
     <t>80,00 TL</t>
   </si>
   <si>
-    <t>2025-01-30</t>
+    <t>2025-01-31</t>
   </si>
   <si>
     <t>Meyve</t>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="60">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -148,36 +148,33 @@
     <t>10,00 TL</t>
   </si>
   <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
     <t>35,00 TL</t>
   </si>
   <si>
-    <t>40,00 TL</t>
-  </si>
-  <si>
-    <t>30,00 TL</t>
-  </si>
-  <si>
-    <t>50,00 TL</t>
-  </si>
-  <si>
-    <t>150,00 TL</t>
-  </si>
-  <si>
-    <t>25,00 TL</t>
-  </si>
-  <si>
-    <t>15,00 TL</t>
-  </si>
-  <si>
-    <t>20,00 TL</t>
-  </si>
-  <si>
-    <t>60,00 TL</t>
-  </si>
-  <si>
-    <t>55,00 TL</t>
-  </si>
-  <si>
     <t>90,00 TL</t>
   </si>
   <si>
@@ -193,7 +190,7 @@
     <t>80,00 TL</t>
   </si>
   <si>
-    <t>2025-02-04</t>
+    <t>2025-02-05</t>
   </si>
   <si>
     <t>Meyve</t>
@@ -591,13 +588,13 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -611,13 +608,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -631,13 +628,13 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -651,13 +648,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -668,16 +665,16 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -688,16 +685,16 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -708,16 +705,16 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -731,13 +728,13 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -748,16 +745,16 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -768,16 +765,16 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -788,16 +785,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -808,16 +805,16 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -828,16 +825,16 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -848,16 +845,16 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -868,16 +865,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -888,16 +885,16 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -908,16 +905,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -928,16 +925,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -951,13 +948,13 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -968,16 +965,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -988,16 +985,16 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1008,16 +1005,16 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1031,13 +1028,13 @@
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1048,16 +1045,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1068,16 +1065,16 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1088,16 +1085,16 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1108,16 +1105,16 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1128,16 +1125,16 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1148,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1168,16 +1165,16 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1188,16 +1185,16 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1208,16 +1205,16 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1228,16 +1225,16 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1248,16 +1245,16 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="60">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,168 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +577,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,171 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +580,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -151,15 +151,15 @@
     <t>30,00 TL</t>
   </si>
   <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
     <t>40,00 TL</t>
   </si>
   <si>
-    <t>50,00 TL</t>
-  </si>
-  <si>
-    <t>100,00 TL</t>
-  </si>
-  <si>
     <t>25,00 TL</t>
   </si>
   <si>
@@ -175,6 +175,12 @@
     <t>60,00 TL</t>
   </si>
   <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>75,00 TL</t>
+  </si>
+  <si>
     <t>90,00 TL</t>
   </si>
   <si>
@@ -187,13 +193,16 @@
     <t>200,00 TL</t>
   </si>
   <si>
+    <t>65,00 TL</t>
+  </si>
+  <si>
     <t>70,00 TL</t>
   </si>
   <si>
     <t>80,00 TL</t>
   </si>
   <si>
-    <t>2025-02-17</t>
+    <t>2025-02-18</t>
   </si>
   <si>
     <t>Meyve</t>
@@ -594,10 +603,10 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -611,13 +620,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -631,13 +640,13 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -651,13 +660,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -671,13 +680,13 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -688,16 +697,16 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -708,16 +717,16 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -728,16 +737,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -751,13 +760,13 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -771,13 +780,13 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -791,13 +800,13 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -814,10 +823,10 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -834,10 +843,10 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -854,10 +863,10 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -871,13 +880,13 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -894,10 +903,10 @@
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -914,10 +923,10 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -934,10 +943,10 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -954,10 +963,10 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -971,13 +980,13 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -991,13 +1000,13 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,10 +1023,10 @@
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,10 +1043,10 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,10 +1063,10 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1071,13 +1080,13 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1091,13 +1100,13 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1108,16 +1117,16 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1131,13 +1140,13 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1148,16 +1157,16 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1171,13 +1180,13 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1194,10 +1203,10 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1208,16 +1217,16 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1228,16 +1237,16 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1251,13 +1260,13 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>75,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>65,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>75,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>65,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -202,7 +202,7 @@
     <t>80,00 TL</t>
   </si>
   <si>
-    <t>2025-02-20</t>
+    <t>2025-02-21</t>
   </si>
   <si>
     <t>Meyve</t>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>75,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>65,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="64">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,180 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>75,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>65,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +589,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -202,7 +202,7 @@
     <t>80,00 TL</t>
   </si>
   <si>
-    <t>2025-02-25</t>
+    <t>2025-02-26</t>
   </si>
   <si>
     <t>Meyve</t>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -202,7 +202,7 @@
     <t>80,00 TL</t>
   </si>
   <si>
-    <t>2025-02-26</t>
+    <t>2025-02-27</t>
   </si>
   <si>
     <t>Meyve</t>

--- a/hal_fiyatlari_sebze.xlsx
+++ b/hal_fiyatlari_sebze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
   <si>
     <t>Urun Adı</t>
   </si>
@@ -32,6 +32,186 @@
   </si>
   <si>
     <t>Kategori</t>
+  </si>
+  <si>
+    <t>Armut</t>
+  </si>
+  <si>
+    <t>Armut (Deveci)</t>
+  </si>
+  <si>
+    <t>Armut (Santamaria)</t>
+  </si>
+  <si>
+    <t>Avakado</t>
+  </si>
+  <si>
+    <t>Ayva</t>
+  </si>
+  <si>
+    <t>Çilek II.</t>
+  </si>
+  <si>
+    <t>Çilek(I.)</t>
+  </si>
+  <si>
+    <t>Elma (Amasya)</t>
+  </si>
+  <si>
+    <t>Elma (Golden)</t>
+  </si>
+  <si>
+    <t>Elma (Gransimit)</t>
+  </si>
+  <si>
+    <t>Elma (Starkin)</t>
+  </si>
+  <si>
+    <t>Elma(GoldenII.)</t>
+  </si>
+  <si>
+    <t>Elma(gransimit)II.</t>
+  </si>
+  <si>
+    <t>Elma(starkin)II.</t>
+  </si>
+  <si>
+    <t>Erik (Anjelik)</t>
+  </si>
+  <si>
+    <t>Greyfurt</t>
+  </si>
+  <si>
+    <t>Karpuz (1.Kalite)</t>
+  </si>
+  <si>
+    <t>Kavun</t>
+  </si>
+  <si>
+    <t>Kavun (Kırkağaç)</t>
+  </si>
+  <si>
+    <t>Kestane</t>
+  </si>
+  <si>
+    <t>Kivi (Yerli)</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Limon (Çıkma)</t>
+  </si>
+  <si>
+    <t>Limon (Mayer)</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>Muşmula</t>
+  </si>
+  <si>
+    <t>Muz (Yerli)</t>
+  </si>
+  <si>
+    <t>Muz(Yerli II.)</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Portakal (Sıkmalık)</t>
+  </si>
+  <si>
+    <t>Trabzon Hurması</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Üzüm(Siyah)</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Sandık</t>
+  </si>
+  <si>
+    <t>10,00 TL</t>
+  </si>
+  <si>
+    <t>30,00 TL</t>
+  </si>
+  <si>
+    <t>50,00 TL</t>
+  </si>
+  <si>
+    <t>80,00 TL</t>
+  </si>
+  <si>
+    <t>120,00 TL</t>
+  </si>
+  <si>
+    <t>40,00 TL</t>
+  </si>
+  <si>
+    <t>25,00 TL</t>
+  </si>
+  <si>
+    <t>15,00 TL</t>
+  </si>
+  <si>
+    <t>20,00 TL</t>
+  </si>
+  <si>
+    <t>150,00 TL</t>
+  </si>
+  <si>
+    <t>60,00 TL</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>75,00 TL</t>
+  </si>
+  <si>
+    <t>100,00 TL</t>
+  </si>
+  <si>
+    <t>170,00 TL</t>
+  </si>
+  <si>
+    <t>35,00 TL</t>
+  </si>
+  <si>
+    <t>45,00 TL</t>
+  </si>
+  <si>
+    <t>200,00 TL</t>
+  </si>
+  <si>
+    <t>90,00 TL</t>
+  </si>
+  <si>
+    <t>65,00 TL</t>
+  </si>
+  <si>
+    <t>70,00 TL</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>Meyve</t>
   </si>
 </sst>
 </file>
@@ -389,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +595,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
